--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Gina</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Carline</t>
+  </si>
+  <si>
+    <t>skippy</t>
   </si>
 </sst>
 </file>
@@ -372,109 +375,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1">
-        <v>253628</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
+        <v>81</v>
+      </c>
+      <c r="D1">
+        <v>77</v>
+      </c>
+      <c r="E1">
+        <v>88</v>
+      </c>
+      <c r="F1">
+        <v>95</v>
+      </c>
+      <c r="G1">
+        <v>81</v>
+      </c>
+      <c r="H1">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="I1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>522436</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>325718</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>662367</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>382846</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>230780</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>407321</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>732252</v>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>134886</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="C9">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -375,103 +375,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
-        <v>87</v>
-      </c>
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
         <v>81</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>77</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>88</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>95</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>81</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>87</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>522436</v>
+        <v>253628</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>325718</v>
+        <v>522436</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>662367</v>
+        <v>325718</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>382846</v>
+        <v>662367</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>230780</v>
+        <v>382846</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>407321</v>
+        <v>230780</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>9</v>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>407321</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>134886</v>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>134886</v>
       </c>
     </row>
   </sheetData>

--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Gina</t>
   </si>
@@ -43,7 +43,16 @@
     <t>Carline</t>
   </si>
   <si>
-    <t>skippy</t>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Student name</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Average grade</t>
   </si>
 </sst>
 </file>
@@ -88,6 +97,18 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Grades" displayName="Grades" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Student ID"/>
+    <tableColumn id="2" name="Student name"/>
+    <tableColumn id="3" name="Grade"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,111 +396,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1">
+        <f>AVERAGE(Grades[Grade])</f>
         <v>0</v>
       </c>
-      <c r="C1">
-        <v>100</v>
-      </c>
-      <c r="D1">
-        <v>81</v>
-      </c>
-      <c r="E1">
-        <v>77</v>
-      </c>
-      <c r="F1">
-        <v>88</v>
-      </c>
-      <c r="G1">
-        <v>95</v>
-      </c>
-      <c r="H1">
-        <v>81</v>
-      </c>
-      <c r="I1">
-        <v>87</v>
-      </c>
-      <c r="J1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>253628</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>522436</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>325718</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>662367</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>382846</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>230780</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>407321</v>
       </c>
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>732252</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>134886</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -450,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>77</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -472,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>87</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>0.98</v>
       </c>
     </row>
   </sheetData>

--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -8,13 +8,37 @@
   </bookViews>
   <sheets>
     <sheet name="grades" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charline spent her summer backpacking the French Riviera.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Gina</t>
   </si>
@@ -53,19 +77,28 @@
   </si>
   <si>
     <t>Average grade</t>
+  </si>
+  <si>
+    <t>Made you look!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,6 +434,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -415,7 +451,7 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <f>AVERAGE(Grades[Grade])</f>
         <v>0</v>
       </c>
@@ -427,7 +463,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -438,7 +474,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -449,7 +485,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -460,7 +496,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.77</v>
       </c>
     </row>
@@ -471,7 +507,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -482,7 +518,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -493,7 +529,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -504,7 +540,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -515,14 +551,33 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -86,6 +86,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -121,8 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -451,7 +456,7 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <f>AVERAGE(Grades[Grade])</f>
         <v>0</v>
       </c>
@@ -463,7 +468,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.87</v>
       </c>
     </row>
@@ -474,7 +479,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -485,7 +490,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -496,7 +501,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.77</v>
       </c>
     </row>
@@ -507,7 +512,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -518,7 +523,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -529,7 +534,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -540,7 +545,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.87</v>
       </c>
     </row>
@@ -551,7 +556,7 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.98</v>
       </c>
     </row>

--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -124,9 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +456,7 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <f>AVERAGE(Grades[Grade])</f>
         <v>0</v>
       </c>
@@ -469,7 +468,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -480,7 +479,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -491,7 +490,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -502,7 +501,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.77</v>
       </c>
     </row>
@@ -513,7 +512,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.88</v>
       </c>
     </row>
@@ -524,7 +523,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.95</v>
       </c>
     </row>
@@ -535,7 +534,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -546,7 +545,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.87</v>
       </c>
     </row>
@@ -557,10 +556,15 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.98</v>
       </c>
     </row>
+    <row r="11" spans="1:6" hidden="1"/>
+    <row r="12" spans="1:6" hidden="1"/>
+    <row r="13" spans="1:6" hidden="1"/>
+    <row r="14" spans="1:6" hidden="1"/>
+    <row r="15" spans="1:6" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/2-managing-workbooks/grades.xlsx
+++ b/2-managing-workbooks/grades.xlsx
@@ -124,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +457,7 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="2">
         <f>AVERAGE(Grades[Grade])</f>
         <v>0</v>
       </c>
@@ -468,7 +469,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.87</v>
       </c>
     </row>
@@ -479,7 +480,7 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -490,7 +491,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -501,7 +502,7 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.77</v>
       </c>
     </row>
@@ -512,7 +513,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.88</v>
       </c>
     </row>
@@ -523,7 +524,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.95</v>
       </c>
     </row>
@@ -534,7 +535,7 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -545,7 +546,7 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.87</v>
       </c>
     </row>
@@ -556,15 +557,10 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1"/>
-    <row r="12" spans="1:6" hidden="1"/>
-    <row r="13" spans="1:6" hidden="1"/>
-    <row r="14" spans="1:6" hidden="1"/>
-    <row r="15" spans="1:6" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
